--- a/biology/Zoologie/Amazophrynella/Amazophrynella.xlsx
+++ b/biology/Zoologie/Amazophrynella/Amazophrynella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amazophrynella est un genre d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amazophrynella est un genre d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sept espèces de ce genre se rencontrent au Brésil, en Guyane, au Suriname, au Guyana, au Venezuela, en Colombie, en Équateur, au Pérou et en Bolivie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sept espèces de ce genre se rencontrent au Brésil, en Guyane, au Suriname, au Guyana, au Venezuela, en Colombie, en Équateur, au Pérou et en Bolivie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (15 août 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (15 août 2022) :
 Amazophrynella amazonicola Rojas, Carvalho, Ávila, Farias, Gordo &amp; Hrbek, 2015
 Amazophrynella bilinguis Kaefer, Rojas-Zamora, Ferrão, Farias &amp; Lima, 2019
 Amazophrynella bokermanni (Izecksohn, 1994)
@@ -584,7 +600,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fouquet, Recoder, Teixeira, Cassimiro, Amaro, Camacho, Damasceno, Carnaval, Moritz &amp; Rodrigues, 2012 : Amazonella Fouquet et al., 2012 (Anura:Bufonidae) junior homonym of Amazonella Lundblad, 1931 (Acari:Unionicolidae): proposed replacement by Amazophrynella nom. nov. Zootaxa, no 3244, p. 68 (texte intégral).
 Fouquet, Recoder, Teixeira, Cassimiro, Amaro, Camacho, Damasceno, Carnaval, Moritz &amp; Rodrigues, 2012 : Molecular phylogeny and morphometric analyses reveal deep divergence between Amazonia and Atlantic Forest species of Dendrophryniscus. Molecular Phylogenetics and Evolution, vol. 62, p. 826–838 (texte intégral).</t>
